--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1948461.17120747</v>
+        <v>-1951376.768299798</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>401.6796206502153</v>
+        <v>239.9903526817914</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>73.78486954217213</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>328.9564835130923</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>85.87170836083615</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>197.1931186855042</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>282.8745544480713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>184.3889888346162</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>118.9913269637018</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>3.591472050388188</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>125.8056357146079</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>94.1733689463901</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>33.42595480754878</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1967972861383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>197.6600124601322</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.7360280987093</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -1546,7 +1546,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>183.0997022846895</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>59.96838802184548</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>181.2557668969904</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.09841665934233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>77.39507264402597</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.5133406574299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>1.594095449514112</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.185049953102</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>982.1084653214596</v>
+        <v>1076.305901208759</v>
       </c>
       <c r="C2" t="n">
-        <v>613.1459483810479</v>
+        <v>707.3433842683471</v>
       </c>
       <c r="D2" t="n">
-        <v>613.1459483810479</v>
+        <v>707.3433842683471</v>
       </c>
       <c r="E2" t="n">
-        <v>613.1459483810479</v>
+        <v>707.3433842683471</v>
       </c>
       <c r="F2" t="n">
-        <v>613.1459483810479</v>
+        <v>296.3574794787396</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2446.441432077673</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2192.679646715765</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2192.679646715765</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1839.91099144565</v>
       </c>
       <c r="X2" t="n">
-        <v>1372.247797297271</v>
+        <v>1466.44523318457</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.1084653214596</v>
+        <v>1076.305901208759</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,25 +4413,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>571.1061430638139</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>571.1061430638139</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>2610.409991663842</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2320.992821626882</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1620.08070321196</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C5" t="n">
-        <v>1251.118186271549</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>892.8524876647982</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>507.064235066554</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.08070321196</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>327.5890571512475</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>327.5890571512475</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2517.343853786546</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2517.343853786546</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2517.343853786546</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2164.575198516432</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.109440255352</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.109440255352</v>
+        <v>2351.43802427856</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>694.3653934917385</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>694.3653934917385</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>439.6809052858516</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>439.6809052858516</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="11">
@@ -5051,16 +5051,16 @@
         <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.752242696685</v>
+        <v>2969.999193969362</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.614279155823</v>
+        <v>3652.861230428501</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.920227843171</v>
+        <v>4201.167179115849</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.502413949178</v>
+        <v>4564.749365221855</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5069,22 +5069,22 @@
         <v>4605.365889165442</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.709310922884</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.265981642434</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4646447998178</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3254056113306</v>
+        <v>571.9733873631765</v>
       </c>
       <c r="L12" t="n">
-        <v>915.0577384550818</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>965.224712766525</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="N12" t="n">
-        <v>1587.320676165861</v>
+        <v>1356.759402180614</v>
       </c>
       <c r="O12" t="n">
-        <v>2134.197151166055</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.780669592131</v>
+        <v>2323.219395606885</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.780669592131</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.360590861193</v>
+        <v>719.7528513452626</v>
       </c>
       <c r="C13" t="n">
-        <v>632.4244079332861</v>
+        <v>550.8166684173557</v>
       </c>
       <c r="D13" t="n">
-        <v>632.4244079332861</v>
+        <v>550.8166684173557</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4244079332861</v>
+        <v>402.9035748349626</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>402.9035748349626</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3202656099546</v>
+        <v>235.6893800095415</v>
       </c>
       <c r="H13" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5233,16 @@
         <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1669.596282958599</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W13" t="n">
-        <v>1380.179112921639</v>
+        <v>1125.494624715752</v>
       </c>
       <c r="X13" t="n">
-        <v>1152.189562023621</v>
+        <v>940.5454304887927</v>
       </c>
       <c r="Y13" t="n">
-        <v>931.3969828800913</v>
+        <v>719.7528513452626</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192612</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468478</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951536</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685892</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703114</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579756</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2389.155899672379</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5841,16 +5841,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y22" t="n">
-        <v>869.6905094135296</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5987,49 +5987,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,22 +6543,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.3734194384019</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380731</v>
@@ -7102,22 +7102,22 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7163,58 +7163,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
         <v>1859.536823237711</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942665</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7400,58 +7400,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7600,10 +7600,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797253</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192662</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>49.74439522492673</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>49.74439522492656</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>-2.868457768006791e-12</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.10454937057966</v>
+        <v>173.7938173390036</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>56.69292621882477</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.537044377342227</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.537044377341999</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.09595208322804</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>42.60995310434765</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>86.46557462472369</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>70.88187642683758</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.4862366927525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>208.7894017452182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>106.0713126946649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.9994244361422</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1336061.497243597</v>
+        <v>1336061.497243596</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1336061.497243597</v>
+        <v>1336061.497243596</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64980.41945326157</v>
+        <v>64980.41945326155</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>80656.0628386123</v>
+        <v>80656.06283861228</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="H2" t="n">
         <v>80714.65996900063</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="J2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614951069</v>
+        <v>7852.637614951788</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103327.7358282894</v>
+        <v>103327.7358282893</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718168</v>
+        <v>5759.938886718171</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670372</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670452</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26439,25 +26439,25 @@
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
+        <v>13058.45186476389</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13058.45186476389</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13058.45186476389</v>
+      </c>
+      <c r="M4" t="n">
         <v>13058.4518647639</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13058.4518647639</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13058.4518647639</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
         <v>13058.4518647639</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476388</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476392</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-711174.2736529816</v>
+        <v>-711602.3675913108</v>
       </c>
       <c r="C6" t="n">
-        <v>-201819.4070047126</v>
+        <v>-201819.4070047127</v>
       </c>
       <c r="D6" t="n">
         <v>-201819.4070047127</v>
       </c>
       <c r="E6" t="n">
-        <v>-962401.2443451791</v>
+        <v>-962437.4471988745</v>
       </c>
       <c r="F6" t="n">
-        <v>-33328.10007152801</v>
+        <v>-33362.83799696442</v>
       </c>
       <c r="G6" t="n">
-        <v>-25475.46245657695</v>
+        <v>-25510.20038201197</v>
       </c>
       <c r="H6" t="n">
-        <v>-25475.46245657692</v>
+        <v>-25510.20038201261</v>
       </c>
       <c r="I6" t="n">
-        <v>-25475.4624565769</v>
+        <v>-25510.20038201261</v>
       </c>
       <c r="J6" t="n">
-        <v>-229969.3279184757</v>
+        <v>-229969.3279184756</v>
       </c>
       <c r="K6" t="n">
-        <v>-34118.39073225089</v>
+        <v>-34118.3907322509</v>
       </c>
       <c r="L6" t="n">
-        <v>-34118.39073225089</v>
+        <v>-34118.39073225087</v>
       </c>
       <c r="M6" t="n">
-        <v>-158326.9014403095</v>
+        <v>-158326.9014403094</v>
       </c>
       <c r="N6" t="n">
-        <v>-34118.39073225096</v>
+        <v>-34118.3907322509</v>
       </c>
       <c r="O6" t="n">
-        <v>-53546.10872588275</v>
+        <v>-53546.10872588267</v>
       </c>
       <c r="P6" t="n">
-        <v>-34118.39073225093</v>
+        <v>-34118.39073225095</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625289284</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>142.6634508154856</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>40.7746171653767</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>166.2659349629918</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>168.0797730855033</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>124.0014912936401</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>40.64611662346809</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>167.2905472782759</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>212.8568483072696</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>260.4323029414458</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>85.6586112355472</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>191.6091506505355</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31847,10 +31847,10 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>192.8077453477186</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426204</v>
@@ -31859,7 +31859,7 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348438</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135345</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175683</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159433</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460035</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236514</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669227</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078749</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473078</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145748</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437249</v>
       </c>
       <c r="P15" t="n">
-        <v>346.9084613860364</v>
+        <v>561.8765786214702</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742443</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869281</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.5330199802463</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>303.4297552732313</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,10 +33035,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O27" t="n">
-        <v>640.7275049411307</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,25 +33263,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>531.8166820790243</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>361.5531172119652</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35419,7 +35419,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>794.4766961512966</v>
       </c>
       <c r="O11" t="n">
         <v>689.7596327870084</v>
@@ -35431,7 +35431,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>177.1017560095107</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35495,10 +35495,10 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>50.67371142570025</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O12" t="n">
         <v>552.400479798176</v>
@@ -35507,7 +35507,7 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317426</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902955</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193478</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243168</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924732</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902407</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674336</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312415</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992804</v>
       </c>
       <c r="P15" t="n">
-        <v>212.9340539717061</v>
+        <v>427.90217120714</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625078</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010454</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899078</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.5512458942248</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>160.8335108287869</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O27" t="n">
-        <v>498.1312604966863</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,25 +36911,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>393.2623022991501</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>219.4190832899469</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38175,22 +38175,22 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
         <v>144.6869047919381</v>
